--- a/documents/voca-테이블명세(2022-12-25).xlsx
+++ b/documents/voca-테이블명세(2022-12-25).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Project_Voca\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B7ABC-6BDE-4060-8401-113BAE0AC346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC693AB8-6B0E-4BE4-BF34-E493940F5F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="27870" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="27870" windowHeight="13200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주제" sheetId="2" r:id="rId1"/>
@@ -382,10 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_attatchs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>`</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -476,6 +472,10 @@
 CONSTRAINT f_subatt
 FOREIGN KEY(a_subid) REFERENCES tbl_subjects(s_subid)
 ON DELETE CASCADE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_attachs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,32 +1148,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1205,6 +1181,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1213,12 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2223,20 +2220,20 @@
       <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -2248,36 +2245,36 @@
       <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2389,7 +2386,7 @@
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>69</v>
@@ -2410,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>29</v>
@@ -2479,28 +2476,28 @@
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2532,12 +2529,12 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -2549,10 +2546,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -2564,10 +2561,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -2579,10 +2576,10 @@
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
@@ -2594,10 +2591,10 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -2609,10 +2606,10 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2793,13 +2790,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E14:H17"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="E14:H17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3471,20 +3468,20 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -3496,36 +3493,36 @@
       <c r="C3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3622,12 +3619,12 @@
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="E8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="30"/>
@@ -4650,20 +4647,20 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -4675,36 +4672,36 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4791,7 +4788,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>68</v>
@@ -4832,12 +4829,12 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
+      <c r="E9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4849,10 +4846,10 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -4864,10 +4861,10 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -4879,10 +4876,10 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -5187,8 +5184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453491B5-A064-434A-A72B-3A07375397B8}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5846,20 +5843,20 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -5869,38 +5866,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5987,7 +5984,7 @@
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>68</v>
@@ -6132,12 +6129,12 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="E13" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -6149,10 +6146,10 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -6164,10 +6161,10 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -6179,10 +6176,10 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -7084,22 +7081,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7109,38 +7106,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="C4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -7188,7 +7185,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>29</v>
@@ -7213,7 +7210,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>29</v>
@@ -8258,20 +8255,20 @@
       <c r="C2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -8283,36 +8280,36 @@
       <c r="C3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -8360,7 +8357,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -8384,7 +8381,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>29</v>
@@ -9430,20 +9427,20 @@
       <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="48">
+      <c r="I2" s="38"/>
+      <c r="J2" s="40">
         <v>44918</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="28" t="s">
         <v>11</v>
       </c>
@@ -9455,36 +9452,36 @@
       <c r="C3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -9532,7 +9529,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>29</v>
@@ -9556,7 +9553,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>29</v>
@@ -9682,7 +9679,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
